--- a/programer-轿车篇.xlsx
+++ b/programer-轿车篇.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5680" yWindow="100" windowWidth="25600" windowHeight="13940" tabRatio="500"/>
+    <workbookView xWindow="1020" yWindow="160" windowWidth="25600" windowHeight="14000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
   <si>
     <t>镜号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,6 +186,110 @@
   </si>
   <si>
     <t>车子开走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从车内往外拍摄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车开在马路上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后座拍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车内广播【下一则消息，今天凌晨，巴西世界杯八分之一决赛正式打响，巴西以4比3的比分战胜智力，晋级8强。下一则消息，李氏家族今天凌晨宣布正式收购软通科技，官方发言人表示李氏家族有意转型……】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后座拍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱警官【李氏家族居然用了三年才把软通搞定，这真是……】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张霸愁着眉头，此时，张霸的手机响起。张霸接起来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张霸【什么，她突然上线了？】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱警官（无奈地瑶瑶头笑着）。瞥了一眼张霸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轿车2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轿车3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈威扶着阿丽进入一辆车。手里抱着孩子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿丽脖子上的项链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前后景别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张霸【你真的不见她？】李宏涛【我已经没有资格做他的父亲了】张霸【不管怎么样，你得先跟我回一趟侦探社】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车慢慢开走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张霸，李宏涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张霸骑着电动车，载着李宏涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -193,7 +297,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -228,6 +332,24 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -299,20 +421,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -322,6 +439,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -333,7 +459,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -665,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -675,299 +805,301 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="26">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="91">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="39">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="26">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" ht="39">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="117">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="36" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" ht="36" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="111" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6" t="s">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="51" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" ht="51" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" ht="26">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" ht="26">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" ht="26" customHeight="1">
-      <c r="A19" s="8"/>
+      <c r="A19" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -976,313 +1108,373 @@
       <c r="G19" s="9"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
+    <row r="20" spans="1:8" ht="26">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" ht="104">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" ht="52">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" ht="65">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" ht="27" customHeight="1">
+      <c r="A24" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="1:8" ht="52">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" ht="52">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" ht="26">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" ht="39">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" ht="52">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A24:H24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
